--- a/backend/server/logsExcel/864.xlsx
+++ b/backend/server/logsExcel/864.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1"/>
     </row>
